--- a/JeldertTests/Card Counter Memory Game.xlsx
+++ b/JeldertTests/Card Counter Memory Game.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="7635" windowHeight="7245"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="7632" windowHeight="7248"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
   <si>
     <t>Fire Emblem Female</t>
   </si>
@@ -282,12 +282,6 @@
     <t>Iden Versio</t>
   </si>
   <si>
-    <t>Darth Kreia</t>
-  </si>
-  <si>
-    <t>Aurra Sing</t>
-  </si>
-  <si>
     <t>Darth Talon</t>
   </si>
   <si>
@@ -309,9 +303,6 @@
     <t>Zam Wessel</t>
   </si>
   <si>
-    <t>Shaak Ti</t>
-  </si>
-  <si>
     <t>Bastilla Shan</t>
   </si>
   <si>
@@ -324,9 +315,6 @@
     <t>Visas Marr</t>
   </si>
   <si>
-    <t>Mother Talzin</t>
-  </si>
-  <si>
     <t>Seventh Sister</t>
   </si>
   <si>
@@ -390,9 +378,6 @@
     <t>Cody</t>
   </si>
   <si>
-    <t>Kal</t>
-  </si>
-  <si>
     <t>Clone Commando</t>
   </si>
   <si>
@@ -400,6 +385,12 @@
   </si>
   <si>
     <t>Sion</t>
+  </si>
+  <si>
+    <t>Meetra Surik</t>
+  </si>
+  <si>
+    <t>Kal Skirata</t>
   </si>
 </sst>
 </file>
@@ -430,12 +421,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -443,6 +428,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -464,11 +455,11 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -481,9 +472,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Kantoor">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -521,7 +512,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Kantoor">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -593,7 +584,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Kantoor">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -767,21 +758,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -798,427 +790,412 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E2" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E3" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E4" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E5" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D6" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D7" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D8" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D9" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D10" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E11" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D12" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D13" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E14" s="2" t="s">
+      <c r="D14" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D15" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D16" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D17" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="2" t="s">
         <v>60</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D19" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D20" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E21" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E22" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E23" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D24" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D26" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D27" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D28" s="2" t="s">
-        <v>103</v>
+      <c r="D25" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -1236,7 +1213,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1248,7 +1225,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
